--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Dokumente\uni\informatik\Bachlorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Dokumente\uni\informatik\Bachlorarbeit\ReflectDetect\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97206A46-64A6-4940-8CEB-9E28C80D1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47E162-C9F4-49CE-BAFC-50977CB6578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3885" yWindow="5220" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="assertj-core-3.25.3.jar" sheetId="4" r:id="rId2"/>
+    <sheet name="gson-2.10.1.jar" sheetId="7" r:id="rId3"/>
+    <sheet name="guava-33.1.0-jre.jar" sheetId="8" r:id="rId4"/>
+    <sheet name="hadoop-common-3.4.0.jar" sheetId="9" r:id="rId5"/>
+    <sheet name="jackson-databind-2.17.0.jar" sheetId="10" r:id="rId6"/>
+    <sheet name="junit-4.13.2.jar" sheetId="11" r:id="rId7"/>
+    <sheet name="log4j-core-2.23.1.jar" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="53">
   <si>
     <t>Classes:</t>
   </si>
@@ -67,59 +73,14 @@
   </si>
   <si>
     <t>Patterns</t>
-  </si>
-  <si>
-    <t>FeatureType</t>
-  </si>
-  <si>
-    <t>setAccessible(boolean)</t>
-  </si>
-  <si>
-    <t>setAccessible(boolean)
-invoke(Object, Object[])</t>
   </si>
   <si>
     <t>ManipulateMetaObject
 InvokeMethod</t>
   </si>
   <si>
-    <t>InvokeMethod</t>
-  </si>
-  <si>
-    <t>Casts</t>
-  </si>
-  <si>
-    <t>invoke(Object, Object[])</t>
-  </si>
-  <si>
-    <t>ConstructObject</t>
-  </si>
-  <si>
-    <t>forName(String)</t>
-  </si>
-  <si>
-    <t>LoadClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ManipulateMetaObject
-</t>
-  </si>
-  <si>
-    <t>setAccessible(boolean)
-get(Object)</t>
-  </si>
-  <si>
     <t>ManipulateMetaObject
 AccessObject</t>
-  </si>
-  <si>
-    <t>get(Object, int)</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>newInstance(Class, int)</t>
   </si>
   <si>
     <t xml:space="preserve">invoke(Object, Object[])
@@ -139,19 +100,162 @@
 ConstructObject</t>
   </si>
   <si>
-    <t>cast(Object)</t>
-  </si>
-  <si>
-    <t>setAccessible(boolean)
-set(Object, Object)</t>
-  </si>
-  <si>
     <t>ManipulateMetaObject
 ManipulateObject</t>
   </si>
   <si>
-    <t xml:space="preserve">newInstance(Object[]) 
+    <t xml:space="preserve">Methods that are reachable: </t>
+  </si>
+  <si>
+    <t>Reachable Methods affected:</t>
+  </si>
+  <si>
+    <t>forName(String)
+setAccessible(Object)
+get(Object)
+invoke(Object, Object[])</t>
+  </si>
+  <si>
+    <t>LoadClass
+ManipulateMetaObject
+AccessObject
+InvokeMethod</t>
+  </si>
+  <si>
+    <t>newInstance(Class, Int)
+set(Object, Int, Object)</t>
+  </si>
+  <si>
+    <t>Array
+Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoke(Object, Object[])
+get(Object)
 </t>
+  </si>
+  <si>
+    <t>InvokeMethod
+AccessObject</t>
+  </si>
+  <si>
+    <t>forName(String)
+invoke(Object, Object[])</t>
+  </si>
+  <si>
+    <t>LoadClass
+InvokeMethod</t>
+  </si>
+  <si>
+    <t>newProxyInstance(ClassLoader, Class[], InvocationHandler)
+cast(Object)</t>
+  </si>
+  <si>
+    <t>Proxy
+Cast</t>
+  </si>
+  <si>
+    <t>forName(String)
+get(Object)</t>
+  </si>
+  <si>
+    <t>LoadClass
+AccessObject</t>
+  </si>
+  <si>
+    <t>ManipulateMetaObject
+AccessObject
+Cast</t>
+  </si>
+  <si>
+    <t>ConstructObject
+ManipulateObject</t>
+  </si>
+  <si>
+    <t>Feature Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoadClass
+ManipulateMetaObject
+AccessObject
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoadClass
+ManipulateMetaObject
+</t>
+  </si>
+  <si>
+    <t>forName(String)
+setAccessible(Boolean)</t>
+  </si>
+  <si>
+    <t>forName(String)
+setAccessible(Boolean)
+get(Object)</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+get(Object)
+cast(Object)</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+set(Object, Object)</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+invoke(Object, Object[])</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+get(Object)</t>
+  </si>
+  <si>
+    <t>ManipulateMetaObject
+ConstructObject</t>
+  </si>
+  <si>
+    <t>loadClass(String)
+newInstance(Object[])</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+getLong(Object)</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+newInstance(Object[])</t>
+  </si>
+  <si>
+    <t>setAccessible(Boolean)
+getInt(Object)</t>
+  </si>
+  <si>
+    <t>get(Object)
+invoke(Object, Object[])</t>
+  </si>
+  <si>
+    <t>AccessObject
+InvokeMethod</t>
+  </si>
+  <si>
+    <t>get(Object)
+set(Object, Object)</t>
+  </si>
+  <si>
+    <t>AccessObject
+ManipulateObject</t>
+  </si>
+  <si>
+    <t>Array
+Array
+Array</t>
+  </si>
+  <si>
+    <t>get(Object, Int)
+newInstance(Class, Int)
+set(Object, Int, Object)</t>
   </si>
 </sst>
 </file>
@@ -167,12 +271,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,7 +317,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -487,122 +616,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F60"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="e">
+      <c r="F4" s="11" t="e">
         <f>D4/D3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="e">
+      <c r="F5" s="11" t="e">
         <f>(D5+D4)/D3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="e">
-        <f>D7/D6</f>
+      <c r="F7" s="11" t="e">
+        <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="e">
+        <f>D8/D7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,6 +921,7 @@
     <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -622,229 +929,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0A763A-22F0-4A52-9A22-5CDD872FB7FB}">
-  <dimension ref="C3:F64"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>31337</v>
       </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="10">
         <f>D4/D3</f>
         <v>1.2445352139643234E-3</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>142</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <f>(D5+D4)/D3</f>
         <v>5.775919839167757E-3</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>255749</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12940</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <f>D7/D6</f>
+      <c r="F7" s="10">
+        <f>D8/D6</f>
         <v>2.7370586004246353E-4</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>5.4095826893353939E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -887,7 +1156,1865 @@
     <row r="62" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E16">
+    <sortCondition ref="C12:C16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22048713-1301-4F5C-B330-98C4DE3B716F}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30241</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>4.9601534340795608E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>D5/D3</f>
+        <v>8.266922390132601E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>244372</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1694</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>9.0026680634442574E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E19">
+    <sortCondition ref="C12:C19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDC1D4B-3F62-464C-B8A0-769E423C76DD}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B3:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>32411</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>1.1107340100583135E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>790</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(D5+D4)/D3</f>
+        <v>2.5485174786337973E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>261087</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>17260</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>1.8767690463332147E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>2.838933951332561E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E24">
+    <sortCondition ref="C12:C24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46634222-A49A-4C26-854C-227636A27B06}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>32776</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>1.9526482792287039E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>53</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(D5+D4)/D3</f>
+        <v>3.5696851354649743E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>269464</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>36492</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>3.0801888192856931E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>83</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>2.2744711169571412E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E30">
+    <sortCondition ref="C12:C30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88386FF-95BC-44DF-B0EE-10741052CD53}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="C12:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30812</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>7.7891730494612484E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(D5+D4)/D3</f>
+        <v>4.0244060755549784E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>252397</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>11916</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>1.9413859911171686E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>4.1121181604565288E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E31">
+    <sortCondition ref="C12:C31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7532A3CC-DF4D-4FED-B36D-E11B2423F457}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="C12:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30374</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>1.0535326265885296E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(D5+D4)/D3</f>
+        <v>1.9753736748534933E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>245084</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2291</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>1.7545004977885132E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>1.8769096464426014E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E31">
+    <sortCondition ref="C12:C31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11F26-FCA2-4290-BA1D-47A6C1C5AB5D}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="C3:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="C12:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31294</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D4/D3</f>
+        <v>9.5865022048955068E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(D5+D4)/D3</f>
+        <v>2.2368505144756182E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>251320</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10249</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D8/D6</f>
+        <v>1.9894954639503422E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <f>D8/D7</f>
+        <v>4.878524734120402E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:5" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:E33">
+    <sortCondition ref="C12:C33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>